--- a/gdp_forecast.xlsx
+++ b/gdp_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195DA19-3ACB-4DD7-B411-9CAF3E33AB16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BDE3C-56CE-40E4-9642-805E9B2034EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3450" windowWidth="23880" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="3615" windowWidth="23880" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>model</t>
   </si>
@@ -33,9 +33,6 @@
     <t>vintage_date</t>
   </si>
   <si>
-    <t>forecast_start</t>
-  </si>
-  <si>
     <t>scenario</t>
   </si>
   <si>
@@ -69,10 +66,10 @@
     <t>f-1</t>
   </si>
   <si>
-    <t>produce_by</t>
-  </si>
-  <si>
-    <t>produce_timestamp</t>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -390,20 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="16" width="15" customWidth="1"/>
+    <col min="2" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -426,16 +423,16 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -444,13 +441,10 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
